--- a/biology/Botanique/Pavetta_owariensis/Pavetta_owariensis.xlsx
+++ b/biology/Botanique/Pavetta_owariensis/Pavetta_owariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavetta owariensis P.Beauv.[2] est une espèce de buissons ou arbustes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. Elle est présente en Afrique tropicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavetta owariensis P.Beauv. est une espèce de buissons ou arbustes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. Elle est présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique owariensis fait référence à l'ancien royaume d'Oware, au sud-ouest de l'actuel Nigeria.
 </t>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve notamment dans les pays suivants : Cameroun, Ghana, Guinée, Guinée équatoriale, Liberia, Nigeria[3].
-La variété Pavetta owariensis var. satabiei S.D. Manning – qui rend hommage au botaniste Benoît Satabié, collecteur de l'holotype en 1976[4] – est endémique du Cameroun[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve notamment dans les pays suivants : Cameroun, Ghana, Guinée, Guinée équatoriale, Liberia, Nigeria.
+La variété Pavetta owariensis var. satabiei S.D. Manning – qui rend hommage au botaniste Benoît Satabié, collecteur de l'holotype en 1976 – est endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -574,16 +590,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 octobre 2017)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 octobre 2017) :
 variété Pavetta owariensis var. glaucescens
 variété Pavetta owariensis var. opaca
 variété Pavetta owariensis var. owariensis
 variété Pavetta owariensis var. satabiei
-Selon The Plant List            (1 octobre 2017)[1] :
+Selon The Plant List            (1 octobre 2017) :
 variété Pavetta owariensis var. glaucescens (Hiern) S.D.Manning
-Selon Tropicos                                           (1 octobre 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Pavetta owariensis var. glaucescens (Hiern) S.D. Manning
 variété Pavetta owariensis var. opaca S.D. Manning
 variété Pavetta owariensis var. owariensis
